--- a/team_specific_matrix/Kansas St._A.xlsx
+++ b/team_specific_matrix/Kansas St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2123893805309734</v>
+        <v>0.2014388489208633</v>
       </c>
       <c r="C2">
-        <v>0.5442477876106194</v>
+        <v>0.5611510791366906</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03097345132743363</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1460176991150443</v>
+        <v>0.1366906474820144</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06637168141592921</v>
+        <v>0.07194244604316546</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02238805970149254</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="C3">
-        <v>0.05970149253731343</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05970149253731343</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7238805970149254</v>
+        <v>0.7034883720930233</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1343283582089552</v>
+        <v>0.1395348837209302</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03225806451612903</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7741935483870968</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1935483870967742</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0949367088607595</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0189873417721519</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05696202531645569</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1708860759493671</v>
+        <v>0.1844660194174757</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04430379746835443</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1455696202531646</v>
+        <v>0.145631067961165</v>
       </c>
       <c r="R6">
-        <v>0.06962025316455696</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="S6">
-        <v>0.3987341772151899</v>
+        <v>0.3980582524271845</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09929078014184398</v>
+        <v>0.08670520231213873</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02127659574468085</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06382978723404255</v>
+        <v>0.05202312138728324</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.148936170212766</v>
+        <v>0.1502890173410405</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007092198581560284</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1773049645390071</v>
+        <v>0.1734104046242775</v>
       </c>
       <c r="R7">
-        <v>0.0425531914893617</v>
+        <v>0.04046242774566474</v>
       </c>
       <c r="S7">
-        <v>0.4397163120567376</v>
+        <v>0.4566473988439306</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1130742049469965</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02120141342756184</v>
+        <v>0.01881720430107527</v>
       </c>
       <c r="E8">
-        <v>0.00353356890459364</v>
+        <v>0.002688172043010753</v>
       </c>
       <c r="F8">
-        <v>0.0989399293286219</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1166077738515901</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02120141342756184</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1590106007067138</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="R8">
-        <v>0.06713780918727916</v>
+        <v>0.06989247311827956</v>
       </c>
       <c r="S8">
-        <v>0.3992932862190813</v>
+        <v>0.3924731182795699</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08870967741935484</v>
+        <v>0.09933774834437085</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008064516129032258</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1290322580645161</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0564516129032258</v>
+        <v>0.0728476821192053</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01612903225806452</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1209677419354839</v>
+        <v>0.1258278145695364</v>
       </c>
       <c r="R9">
-        <v>0.1370967741935484</v>
+        <v>0.1258278145695364</v>
       </c>
       <c r="S9">
-        <v>0.4435483870967742</v>
+        <v>0.4172185430463576</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1091510474090408</v>
+        <v>0.1067463706233988</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02094818081587652</v>
+        <v>0.01707941929974381</v>
       </c>
       <c r="E10">
-        <v>0.001102535832414553</v>
+        <v>0.003415883859948762</v>
       </c>
       <c r="F10">
-        <v>0.06174200661521499</v>
+        <v>0.06660973526900085</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1300992282249173</v>
+        <v>0.1298035866780529</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02205071664829107</v>
+        <v>0.01964133219470538</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2116868798235943</v>
+        <v>0.197267292912041</v>
       </c>
       <c r="R10">
-        <v>0.08158765159867695</v>
+        <v>0.08710503842869342</v>
       </c>
       <c r="S10">
-        <v>0.3616317530319735</v>
+        <v>0.372331340734415</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1795918367346939</v>
+        <v>0.1683501683501684</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09795918367346938</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K11">
-        <v>0.2612244897959184</v>
+        <v>0.2457912457912458</v>
       </c>
       <c r="L11">
-        <v>0.4489795918367347</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01224489795918367</v>
+        <v>0.0101010101010101</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6942148760330579</v>
+        <v>0.6887417218543046</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1818181818181818</v>
+        <v>0.1920529801324503</v>
       </c>
       <c r="K12">
-        <v>0.04132231404958678</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="L12">
-        <v>0.05785123966942149</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02479338842975207</v>
+        <v>0.02649006622516556</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01273885350318471</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07643312101910828</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="I15">
-        <v>0.08280254777070063</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="J15">
-        <v>0.3821656050955414</v>
+        <v>0.4029126213592233</v>
       </c>
       <c r="K15">
-        <v>0.08917197452229299</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01910828025477707</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08917197452229299</v>
+        <v>0.08737864077669903</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2484076433121019</v>
+        <v>0.2524271844660194</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1586206896551724</v>
+        <v>0.1564245810055866</v>
       </c>
       <c r="I16">
-        <v>0.06896551724137931</v>
+        <v>0.0782122905027933</v>
       </c>
       <c r="J16">
-        <v>0.4413793103448276</v>
+        <v>0.4022346368715084</v>
       </c>
       <c r="K16">
-        <v>0.1103448275862069</v>
+        <v>0.1229050279329609</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02068965517241379</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06896551724137931</v>
+        <v>0.0782122905027933</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1310344827586207</v>
+        <v>0.1284916201117318</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01666666666666667</v>
+        <v>0.01876675603217158</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1866666666666667</v>
+        <v>0.1876675603217158</v>
       </c>
       <c r="I17">
-        <v>0.1</v>
+        <v>0.0938337801608579</v>
       </c>
       <c r="J17">
-        <v>0.3933333333333333</v>
+        <v>0.4021447721179625</v>
       </c>
       <c r="K17">
-        <v>0.08666666666666667</v>
+        <v>0.09115281501340483</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.006666666666666667</v>
+        <v>0.008042895442359249</v>
       </c>
       <c r="N17">
-        <v>0.006666666666666667</v>
+        <v>0.005361930294906166</v>
       </c>
       <c r="O17">
-        <v>0.05333333333333334</v>
+        <v>0.05361930294906166</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.15</v>
+        <v>0.1394101876675603</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03174603174603174</v>
+        <v>0.03550295857988166</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1984126984126984</v>
+        <v>0.2011834319526627</v>
       </c>
       <c r="I18">
-        <v>0.05555555555555555</v>
+        <v>0.05917159763313609</v>
       </c>
       <c r="J18">
-        <v>0.4206349206349206</v>
+        <v>0.408284023668639</v>
       </c>
       <c r="K18">
-        <v>0.1111111111111111</v>
+        <v>0.1005917159763314</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01587301587301587</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05555555555555555</v>
+        <v>0.05325443786982249</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1111111111111111</v>
+        <v>0.1301775147928994</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01126126126126126</v>
+        <v>0.01039861351819757</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1903153153153153</v>
+        <v>0.1949740034662045</v>
       </c>
       <c r="I19">
-        <v>0.07207207207207207</v>
+        <v>0.0684575389948007</v>
       </c>
       <c r="J19">
-        <v>0.3941441441441442</v>
+        <v>0.391681109185442</v>
       </c>
       <c r="K19">
-        <v>0.1171171171171171</v>
+        <v>0.1109185441941074</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01238738738738739</v>
+        <v>0.0147313691507799</v>
       </c>
       <c r="N19">
-        <v>0.001126126126126126</v>
+        <v>0.0008665511265164644</v>
       </c>
       <c r="O19">
-        <v>0.0686936936936937</v>
+        <v>0.07192374350086655</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1328828828828829</v>
+        <v>0.1360485268630849</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Kansas St._A.xlsx
+++ b/team_specific_matrix/Kansas St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2014388489208633</v>
+        <v>0.1993670886075949</v>
       </c>
       <c r="C2">
-        <v>0.5611510791366906</v>
+        <v>0.5664556962025317</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02877697841726619</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1366906474820144</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07194244604316546</v>
+        <v>0.0759493670886076</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01744186046511628</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="C3">
-        <v>0.06976744186046512</v>
+        <v>0.0663265306122449</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06976744186046512</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7034883720930233</v>
+        <v>0.7040816326530612</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1395348837209302</v>
+        <v>0.1530612244897959</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2058823529411765</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07766990291262135</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01456310679611651</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="F6">
-        <v>0.06310679611650485</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1844660194174757</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03883495145631068</v>
+        <v>0.05</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.145631067961165</v>
+        <v>0.1409090909090909</v>
       </c>
       <c r="R6">
-        <v>0.07766990291262135</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="S6">
-        <v>0.3980582524271845</v>
+        <v>0.3863636363636364</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08670520231213873</v>
+        <v>0.09139784946236559</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02312138728323699</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05202312138728324</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1502890173410405</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01734104046242774</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1734104046242775</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="R7">
-        <v>0.04046242774566474</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="S7">
-        <v>0.4566473988439306</v>
+        <v>0.4462365591397849</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1129032258064516</v>
+        <v>0.1149144254278729</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01881720430107527</v>
+        <v>0.019559902200489</v>
       </c>
       <c r="E8">
-        <v>0.002688172043010753</v>
+        <v>0.002444987775061125</v>
       </c>
       <c r="F8">
-        <v>0.08602150537634409</v>
+        <v>0.07823960880195599</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1182795698924731</v>
+        <v>0.1149144254278729</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02688172043010753</v>
+        <v>0.02444987775061125</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1720430107526882</v>
+        <v>0.1784841075794621</v>
       </c>
       <c r="R8">
-        <v>0.06989247311827956</v>
+        <v>0.08312958435207823</v>
       </c>
       <c r="S8">
-        <v>0.3924731182795699</v>
+        <v>0.3838630806845966</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09933774834437085</v>
+        <v>0.1124260355029586</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01324503311258278</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1324503311258278</v>
+        <v>0.1183431952662722</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0728476821192053</v>
+        <v>0.08284023668639054</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01324503311258278</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1258278145695364</v>
+        <v>0.1183431952662722</v>
       </c>
       <c r="R9">
-        <v>0.1258278145695364</v>
+        <v>0.1242603550295858</v>
       </c>
       <c r="S9">
-        <v>0.4172185430463576</v>
+        <v>0.4201183431952663</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1067463706233988</v>
+        <v>0.1145339652448657</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01707941929974381</v>
+        <v>0.01579778830963665</v>
       </c>
       <c r="E10">
-        <v>0.003415883859948762</v>
+        <v>0.00315955766192733</v>
       </c>
       <c r="F10">
-        <v>0.06660973526900085</v>
+        <v>0.06556082148499211</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1298035866780529</v>
+        <v>0.1303317535545024</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01964133219470538</v>
+        <v>0.02132701421800948</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.197267292912041</v>
+        <v>0.1951026856240126</v>
       </c>
       <c r="R10">
-        <v>0.08710503842869342</v>
+        <v>0.08846761453396525</v>
       </c>
       <c r="S10">
-        <v>0.372331340734415</v>
+        <v>0.3657187993680885</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1683501683501684</v>
+        <v>0.1640866873065016</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1111111111111111</v>
+        <v>0.1145510835913313</v>
       </c>
       <c r="K11">
-        <v>0.2457912457912458</v>
+        <v>0.2414860681114551</v>
       </c>
       <c r="L11">
-        <v>0.4646464646464646</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0101010101010101</v>
+        <v>0.009287925696594427</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6887417218543046</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1920529801324503</v>
+        <v>0.1878787878787879</v>
       </c>
       <c r="K12">
-        <v>0.03973509933774835</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="L12">
-        <v>0.05298013245033113</v>
+        <v>0.04848484848484848</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02649006622516556</v>
+        <v>0.03636363636363636</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8148148148148148</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1851851851851852</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009708737864077669</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.0970873786407767</v>
+        <v>0.08968609865470852</v>
       </c>
       <c r="I15">
-        <v>0.06796116504854369</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="J15">
-        <v>0.4029126213592233</v>
+        <v>0.3901345291479821</v>
       </c>
       <c r="K15">
-        <v>0.06796116504854369</v>
+        <v>0.06278026905829596</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01456310679611651</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08737864077669903</v>
+        <v>0.08520179372197309</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2524271844660194</v>
+        <v>0.2690582959641256</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0111731843575419</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1564245810055866</v>
+        <v>0.154228855721393</v>
       </c>
       <c r="I16">
-        <v>0.0782122905027933</v>
+        <v>0.07960199004975124</v>
       </c>
       <c r="J16">
-        <v>0.4022346368715084</v>
+        <v>0.4129353233830846</v>
       </c>
       <c r="K16">
-        <v>0.1229050279329609</v>
+        <v>0.1243781094527363</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0223463687150838</v>
+        <v>0.01990049751243781</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0782122905027933</v>
+        <v>0.06965174129353234</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1284916201117318</v>
+        <v>0.1243781094527363</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01876675603217158</v>
+        <v>0.01985111662531017</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1876675603217158</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="I17">
-        <v>0.0938337801608579</v>
+        <v>0.09925558312655088</v>
       </c>
       <c r="J17">
-        <v>0.4021447721179625</v>
+        <v>0.3895781637717122</v>
       </c>
       <c r="K17">
-        <v>0.09115281501340483</v>
+        <v>0.08436724565756824</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008042895442359249</v>
+        <v>0.007444168734491315</v>
       </c>
       <c r="N17">
-        <v>0.005361930294906166</v>
+        <v>0.004962779156327543</v>
       </c>
       <c r="O17">
-        <v>0.05361930294906166</v>
+        <v>0.04962779156327544</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1394101876675603</v>
+        <v>0.1513647642679901</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03550295857988166</v>
+        <v>0.03684210526315789</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2011834319526627</v>
+        <v>0.1947368421052632</v>
       </c>
       <c r="I18">
-        <v>0.05917159763313609</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J18">
-        <v>0.408284023668639</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="K18">
-        <v>0.1005917159763314</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01183431952662722</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05325443786982249</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1301775147928994</v>
+        <v>0.1368421052631579</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01039861351819757</v>
+        <v>0.009538950715421303</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1949740034662045</v>
+        <v>0.1979332273449921</v>
       </c>
       <c r="I19">
-        <v>0.0684575389948007</v>
+        <v>0.07074721780604133</v>
       </c>
       <c r="J19">
-        <v>0.391681109185442</v>
+        <v>0.3847376788553259</v>
       </c>
       <c r="K19">
-        <v>0.1109185441941074</v>
+        <v>0.1144674085850556</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0147313691507799</v>
+        <v>0.01430842607313196</v>
       </c>
       <c r="N19">
-        <v>0.0008665511265164644</v>
+        <v>0.000794912559618442</v>
       </c>
       <c r="O19">
-        <v>0.07192374350086655</v>
+        <v>0.06995230524642289</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1360485268630849</v>
+        <v>0.1375198728139905</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Kansas St._A.xlsx
+++ b/team_specific_matrix/Kansas St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1993670886075949</v>
+        <v>0.2067039106145251</v>
       </c>
       <c r="C2">
-        <v>0.5664556962025317</v>
+        <v>0.5474860335195531</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02531645569620253</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1329113924050633</v>
+        <v>0.1368715083798883</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0759493670886076</v>
+        <v>0.08659217877094973</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01530612244897959</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="C3">
-        <v>0.0663265306122449</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06122448979591837</v>
+        <v>0.06074766355140187</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7040816326530612</v>
+        <v>0.7102803738317757</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1530612244897959</v>
+        <v>0.1495327102803738</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02777777777777778</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2222222222222222</v>
+        <v>0.2564102564102564</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07727272727272727</v>
+        <v>0.09016393442622951</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01818181818181818</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="E6">
-        <v>0.004545454545454545</v>
+        <v>0.004098360655737705</v>
       </c>
       <c r="F6">
-        <v>0.06818181818181818</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1818181818181818</v>
+        <v>0.1844262295081967</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.05</v>
+        <v>0.04508196721311476</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1409090909090909</v>
+        <v>0.1434426229508197</v>
       </c>
       <c r="R6">
-        <v>0.07272727272727272</v>
+        <v>0.06967213114754098</v>
       </c>
       <c r="S6">
-        <v>0.3863636363636364</v>
+        <v>0.3811475409836065</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09139784946236559</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02150537634408602</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05376344086021505</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1451612903225807</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02150537634408602</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1774193548387097</v>
+        <v>0.1715686274509804</v>
       </c>
       <c r="R7">
-        <v>0.04301075268817205</v>
+        <v>0.05392156862745098</v>
       </c>
       <c r="S7">
-        <v>0.4462365591397849</v>
+        <v>0.4558823529411765</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1149144254278729</v>
+        <v>0.1161290322580645</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.019559902200489</v>
+        <v>0.01720430107526882</v>
       </c>
       <c r="E8">
-        <v>0.002444987775061125</v>
+        <v>0.002150537634408602</v>
       </c>
       <c r="F8">
-        <v>0.07823960880195599</v>
+        <v>0.07741935483870968</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1149144254278729</v>
+        <v>0.1096774193548387</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02444987775061125</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1784841075794621</v>
+        <v>0.1763440860215054</v>
       </c>
       <c r="R8">
-        <v>0.08312958435207823</v>
+        <v>0.07956989247311828</v>
       </c>
       <c r="S8">
-        <v>0.3838630806845966</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1124260355029586</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01183431952662722</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1183431952662722</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08284023668639054</v>
+        <v>0.09793814432989691</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01183431952662722</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1183431952662722</v>
+        <v>0.1185567010309278</v>
       </c>
       <c r="R9">
-        <v>0.1242603550295858</v>
+        <v>0.1185567010309278</v>
       </c>
       <c r="S9">
-        <v>0.4201183431952663</v>
+        <v>0.4072164948453608</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1145339652448657</v>
+        <v>0.1133428981348637</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01579778830963665</v>
+        <v>0.01506456241032999</v>
       </c>
       <c r="E10">
-        <v>0.00315955766192733</v>
+        <v>0.002869440459110474</v>
       </c>
       <c r="F10">
-        <v>0.06556082148499211</v>
+        <v>0.06527977044476327</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1303317535545024</v>
+        <v>0.1284074605451937</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02132701421800948</v>
+        <v>0.02295552367288379</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1951026856240126</v>
+        <v>0.1915351506456241</v>
       </c>
       <c r="R10">
-        <v>0.08846761453396525</v>
+        <v>0.08895265423242468</v>
       </c>
       <c r="S10">
-        <v>0.3657187993680885</v>
+        <v>0.3715925394548063</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1640866873065016</v>
+        <v>0.1585014409221902</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1145510835913313</v>
+        <v>0.1210374639769452</v>
       </c>
       <c r="K11">
-        <v>0.2414860681114551</v>
+        <v>0.2334293948126801</v>
       </c>
       <c r="L11">
-        <v>0.4705882352941176</v>
+        <v>0.4783861671469741</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009287925696594427</v>
+        <v>0.008645533141210375</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6909090909090909</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1878787878787879</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="K12">
-        <v>0.03636363636363636</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L12">
-        <v>0.04848484848484848</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03636363636363636</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7586206896551724</v>
+        <v>0.78125</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2413793103448276</v>
+        <v>0.21875</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01345291479820628</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.08968609865470852</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="I15">
-        <v>0.07174887892376682</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="J15">
-        <v>0.3901345291479821</v>
+        <v>0.393574297188755</v>
       </c>
       <c r="K15">
-        <v>0.06278026905829596</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0179372197309417</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08520179372197309</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2690582959641256</v>
+        <v>0.2650602409638554</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01492537313432836</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.154228855721393</v>
+        <v>0.1441441441441441</v>
       </c>
       <c r="I16">
-        <v>0.07960199004975124</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="J16">
-        <v>0.4129353233830846</v>
+        <v>0.4189189189189189</v>
       </c>
       <c r="K16">
-        <v>0.1243781094527363</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01990049751243781</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06965174129353234</v>
+        <v>0.07657657657657657</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1243781094527363</v>
+        <v>0.1306306306306306</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01985111662531017</v>
+        <v>0.02045454545454545</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1935483870967742</v>
+        <v>0.2</v>
       </c>
       <c r="I17">
-        <v>0.09925558312655088</v>
+        <v>0.1</v>
       </c>
       <c r="J17">
-        <v>0.3895781637717122</v>
+        <v>0.3840909090909091</v>
       </c>
       <c r="K17">
-        <v>0.08436724565756824</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007444168734491315</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="N17">
-        <v>0.004962779156327543</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="O17">
-        <v>0.04962779156327544</v>
+        <v>0.04772727272727273</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1513647642679901</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03684210526315789</v>
+        <v>0.03317535545023697</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1947368421052632</v>
+        <v>0.1943127962085308</v>
       </c>
       <c r="I18">
-        <v>0.05263157894736842</v>
+        <v>0.04739336492890995</v>
       </c>
       <c r="J18">
-        <v>0.4210526315789473</v>
+        <v>0.4218009478672986</v>
       </c>
       <c r="K18">
-        <v>0.09473684210526316</v>
+        <v>0.0995260663507109</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01052631578947368</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05263157894736842</v>
+        <v>0.05687203791469194</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1368421052631579</v>
+        <v>0.1374407582938389</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009538950715421303</v>
+        <v>0.01197183098591549</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1979332273449921</v>
+        <v>0.2014084507042254</v>
       </c>
       <c r="I19">
-        <v>0.07074721780604133</v>
+        <v>0.07464788732394366</v>
       </c>
       <c r="J19">
-        <v>0.3847376788553259</v>
+        <v>0.3788732394366197</v>
       </c>
       <c r="K19">
-        <v>0.1144674085850556</v>
+        <v>0.1119718309859155</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01430842607313196</v>
+        <v>0.01267605633802817</v>
       </c>
       <c r="N19">
-        <v>0.000794912559618442</v>
+        <v>0.0007042253521126761</v>
       </c>
       <c r="O19">
-        <v>0.06995230524642289</v>
+        <v>0.06901408450704226</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1375198728139905</v>
+        <v>0.1387323943661972</v>
       </c>
     </row>
   </sheetData>
